--- a/Meeting Records.xlsx
+++ b/Meeting Records.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tayyab\Uni Docs\FYP Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tayyab\Uni Docs\FYP Docs\Test\excel_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>#</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>20 August, 2023</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -269,13 +272,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -309,11 +323,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -599,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,40 +633,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -731,7 +748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -785,7 +802,9 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
